--- a/rrd/AppData/DemoOfflineOnline.xlsx
+++ b/rrd/AppData/DemoOfflineOnline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\RRD_Anshu\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4B2E27-9C90-46AD-9ECE-8F02F129BFBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49B38E8-EF20-422D-A8F2-8A5F3A551123}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keyword" sheetId="1" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t>equals</t>
   </si>
   <si>
-    <t>Phone</t>
-  </si>
-  <si>
     <t>Caseconfig3</t>
   </si>
   <si>
@@ -252,6 +249,9 @@
   </si>
   <si>
     <t>RbaEnableonline</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
@@ -729,7 +729,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -770,13 +770,13 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -787,13 +787,13 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -849,16 +849,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -872,16 +872,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -895,16 +895,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="C4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -918,16 +918,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -949,7 +949,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:H13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -966,288 +966,288 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
         <v>2</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
         <v>2</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1260,7 +1260,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1276,80 +1276,80 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1361,7 +1361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED06CB7A-7540-4D60-B9B9-1A7ADFB74B7F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -1375,27 +1375,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1421,24 +1421,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>19</v>
@@ -1453,7 +1453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E0E795-D4E0-444F-9BB7-887EDBEE9F66}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1464,12 +1464,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
